--- a/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/ImportCompanyProject.xlsx
+++ b/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/ImportCompanyProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\计支宝\project\java1202\COM.JZB.PROJECT\COM.JZB.ORGANIZE.MODULE\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A7FC1-5D5A-41B0-90B1-CB56CEB1C674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76CAC80-583B-4E10-BEB8-29ED0D499416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,11 @@
     <t>单位地址</t>
   </si>
   <si>
-    <t>例:2018-08-08 20:00:00</t>
+    <t>例:湖南省-长沙市</t>
   </si>
   <si>
-    <t>例:湖南省-长沙市</t>
+    <t xml:space="preserve">例:2018-08-08 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -474,7 +475,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -512,10 +513,10 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="5"/>
     </row>
